--- a/results-data/analysis/normal/analysis - normal - small.xlsx
+++ b/results-data/analysis/normal/analysis - normal - small.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\analysis\normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A376A329-1FDD-4EE9-B80B-6EAE9AAF3AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09744E3D-FD34-4A7B-8AF7-C7FEC1BAE1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random - small" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'random - small'!$A$1:$L$295</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -185,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +217,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,623 +1069,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Greedu weight</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31147140657075695"/>
-          <c:y val="3.0161562837154703E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'random - small'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'random - small'!$D$242:$D$244</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.9887428283691401E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9762725830078099E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9928684234619102E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB35-4202-85CB-B9BDF8382E4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>min</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'random - small'!$B$242:$B$244</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB35-4202-85CB-B9BDF8382E4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>max</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'random - small'!$C$242:$C$244</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9.9754333496093707E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.9706649780273394E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9802017211913997E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FB35-4202-85CB-B9BDF8382E4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="315896879"/>
-        <c:axId val="315888559"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="315896879"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Capacity</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="315888559"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="315888559"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="315896879"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
               <a:t>CMCM</a:t>
             </a:r>
           </a:p>
@@ -2276,78 +1665,226 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>BRANCH AND BOUND BFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31147140657075695"/>
+          <c:y val="3.0161562837154703E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>10</c:v>
+            <c:strRef>
+              <c:f>'random - small'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$K$4</c:f>
+              <c:f>'random - small'!$E$4:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.7859999999999899E-5</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'random - small'!$D$34:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.9753398895263605E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3960838317870999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9716186523437491E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5C53-483D-9999-0B8A3B41C1B7}"/>
+              <c16:uniqueId val="{00000000-99DE-4F5D-B13B-D535BCA2984D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>100</c:v>
+            <c:v>min</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$K$5</c:f>
+              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.07477599999999E-3</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'random - small'!$B$34:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.87768173217773E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5C53-483D-9999-0B8A3B41C1B7}"/>
+              <c16:uniqueId val="{00000001-99DE-4F5D-B13B-D535BCA2984D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2355,33 +1892,72 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>1000</c:v>
+            <c:v>max</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$K$6</c:f>
+              <c:f>'random - small'!$E$4:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.31E-5</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'random - small'!$C$34:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9996166229247999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9918422698974601E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.00541114807128E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5C53-483D-9999-0B8A3B41C1B7}"/>
+              <c16:uniqueId val="{00000002-99DE-4F5D-B13B-D535BCA2984D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2393,16 +1969,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="197454143"/>
-        <c:axId val="197453311"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="197454143"/>
+        <c:axId val="315896879"/>
+        <c:axId val="315888559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="315896879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2425,19 +2000,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>capacity</a:t>
+                  <a:t>Capacity</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.6213959697789645"/>
-              <c:y val="0.89777704870224551"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2471,15 +2038,45 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197453311"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315888559"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="197453311"/>
+        <c:axId val="315888559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,13 +2117,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Memory</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> usage</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2559,14 +2151,20 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2590,9 +2188,9 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197454143"/>
+        <c:crossAx val="315896879"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2705,7 +2303,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>BRANCH AND BOUND BFS</a:t>
+              <a:t>BRANCH AND BOUND DFS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2811,18 +2409,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$34:$D$36</c:f>
+              <c:f>'random - small'!$D$64:$D$66</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.9753398895263605E-4</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3960838317870999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9716186523437491E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2830,7 +2428,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99DE-4F5D-B13B-D535BCA2984D}"/>
+              <c16:uniqueId val="{00000000-308B-40D0-873C-9F8AF2078671}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2884,18 +2482,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$34:$B$36</c:f>
+              <c:f>'random - small'!$B$64:$B$66</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.87768173217773E-4</c:v>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,7 +2501,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-99DE-4F5D-B13B-D535BCA2984D}"/>
+              <c16:uniqueId val="{00000001-308B-40D0-873C-9F8AF2078671}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2957,18 +2555,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$34:$C$36</c:f>
+              <c:f>'random - small'!$C$64:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.9996166229247999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9918422698974601E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.00541114807128E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2976,7 +2574,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-99DE-4F5D-B13B-D535BCA2984D}"/>
+              <c16:uniqueId val="{00000002-308B-40D0-873C-9F8AF2078671}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3322,7 +2920,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>BRANCH AND BOUND DFS</a:t>
+              <a:t>Dynamique programming</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3428,18 +3026,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$64:$D$66</c:f>
+              <c:f>'random - small'!$D$93:$D$95</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:pt idx="0">
+                  <c:v>1.9931793212890601E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.3962268829345701E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.5484991073608399E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3447,7 +3045,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-308B-40D0-873C-9F8AF2078671}"/>
+              <c16:uniqueId val="{00000000-0C6F-4BEA-85EA-F0D88BBAF718}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3501,7 +3099,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$64:$B$66</c:f>
+              <c:f>'random - small'!$B$93:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3509,10 +3107,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.9396705627441406E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2.2942066192626901E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3520,7 +3118,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-308B-40D0-873C-9F8AF2078671}"/>
+              <c16:uniqueId val="{00000001-0C6F-4BEA-85EA-F0D88BBAF718}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3574,18 +3172,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$64:$C$66</c:f>
+              <c:f>'random - small'!$C$93:$C$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.9682807922363195E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.9902458190917899E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.9926061630248999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3593,7 +3191,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-308B-40D0-873C-9F8AF2078671}"/>
+              <c16:uniqueId val="{00000002-0C6F-4BEA-85EA-F0D88BBAF718}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3939,623 +3537,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Dynamique programming</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31147140657075695"/>
-          <c:y val="3.0161562837154703E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'random - small'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'random - small'!$D$95:$D$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.9931793212890601E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3962268829345701E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5484991073608399E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C6F-4BEA-85EA-F0D88BBAF718}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>min</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'random - small'!$B$95:$B$97</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.9396705627441406E-4</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>2.2942066192626901E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C6F-4BEA-85EA-F0D88BBAF718}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>max</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'random - small'!$C$95:$C$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9.9682807922363195E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9902458190917899E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9926061630248999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0C6F-4BEA-85EA-F0D88BBAF718}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="315896879"/>
-        <c:axId val="315888559"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="315896879"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Capacity</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="315888559"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="315888559"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="315896879"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
               <a:t>Dynamique programming top down</a:t>
             </a:r>
           </a:p>
@@ -5138,7 +4119,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5445,6 +4426,628 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D0F3-47E8-B552-A0E94C53EE11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="315896879"/>
+        <c:axId val="315888559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="315896879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Capacity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315888559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="315888559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315896879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Genetic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> no optima</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31147140657075695"/>
+          <c:y val="3.0161562837154703E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'random - small'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'random - small'!$D$183:$D$185</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.6781415939331001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8376169204711901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1846083402633596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BA7-47D6-8713-1C392BBE4F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'random - small'!$B$183:$B$185</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>8.9743137359619106E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.97574424743652E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>7.3522028923034597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3BA7-47D6-8713-1C392BBE4F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'random - small'!$C$183:$C$185</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.1758499145507799E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18749904632568301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9627935886383003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3BA7-47D6-8713-1C392BBE4F3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5790,13 +5393,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Genetic</a:t>
+              <a:t>Greedu value</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> no optima</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5901,18 +5499,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$183:$D$185</c:f>
+              <c:f>'random - small'!$D$212:$D$214</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.6781415939331001E-2</c:v>
+                  <c:v>2.9907226562500002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8376169204711901E-2</c:v>
+                  <c:v>6.9737434387206999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1846083402633596</c:v>
+                  <c:v>2.9928684234619102E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5920,7 +5518,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3BA7-47D6-8713-1C392BBE4F3C}"/>
+              <c16:uniqueId val="{00000000-B999-4A89-B57C-FA63884204CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5974,18 +5572,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$183:$B$185</c:f>
+              <c:f>'random - small'!$B$212:$B$214</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8.9743137359619106E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.97574424743652E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>7.3522028923034597</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5993,7 +5591,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3BA7-47D6-8713-1C392BBE4F3C}"/>
+              <c16:uniqueId val="{00000001-B999-4A89-B57C-FA63884204CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6047,18 +5645,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$183:$C$185</c:f>
+              <c:f>'random - small'!$C$212:$C$214</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.1758499145507799E-2</c:v>
+                  <c:v>9.9730491638183594E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18749904632568301</c:v>
+                  <c:v>1.0075569152832001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9627935886383003</c:v>
+                  <c:v>9.9897384643554601E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6066,7 +5664,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3BA7-47D6-8713-1C392BBE4F3C}"/>
+              <c16:uniqueId val="{00000002-B999-4A89-B57C-FA63884204CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6412,7 +6010,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Greedu value</a:t>
+              <a:t>Greedu weight</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6518,15 +6116,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$212:$D$214</c:f>
+              <c:f>'random - small'!$D$242:$D$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.9907226562500002E-4</c:v>
+                  <c:v>3.9887428283691401E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9737434387206999E-4</c:v>
+                  <c:v>4.9762725830078099E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.9928684234619102E-4</c:v>
@@ -6537,7 +6135,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B999-4A89-B57C-FA63884204CD}"/>
+              <c16:uniqueId val="{00000000-FB35-4202-85CB-B9BDF8382E4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6591,17 +6189,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$212:$B$214</c:f>
+              <c:f>'random - small'!$B$242:$B$244</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6610,7 +6208,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B999-4A89-B57C-FA63884204CD}"/>
+              <c16:uniqueId val="{00000001-FB35-4202-85CB-B9BDF8382E4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6664,18 +6262,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$212:$C$214</c:f>
+              <c:f>'random - small'!$C$242:$C$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.9730491638183594E-4</c:v>
+                  <c:v>9.9754333496093707E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0075569152832001E-3</c:v>
+                  <c:v>9.9706649780273394E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9897384643554601E-4</c:v>
+                  <c:v>9.9802017211913997E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6683,7 +6281,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B999-4A89-B57C-FA63884204CD}"/>
+              <c16:uniqueId val="{00000002-FB35-4202-85CB-B9BDF8382E4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7074,46 +6672,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8466,7 +8024,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8963,511 +8521,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -13139,42 +12192,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>81998</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>37892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53423</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114092</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65803A35-D64F-7715-D1AD-D444E60E4EF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>521804</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -13205,7 +12222,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13243,7 +12260,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13251,16 +12268,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>186164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>40586</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>65112</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1088336</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>179412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13281,7 +12298,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13319,7 +12336,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13357,7 +12374,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13395,7 +12412,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13433,7 +12450,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13471,7 +12488,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13509,7 +12526,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13723,8 +12740,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8C72F2C8-50A4-42DE-B1D1-C96896A49B4F}" name="Tableau291113" displayName="Tableau291113" ref="C94:E97" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="C94:E97" xr:uid="{8C72F2C8-50A4-42DE-B1D1-C96896A49B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8C72F2C8-50A4-42DE-B1D1-C96896A49B4F}" name="Tableau291113" displayName="Tableau291113" ref="C92:E95" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="C92:E95" xr:uid="{8C72F2C8-50A4-42DE-B1D1-C96896A49B4F}"/>
   <tableColumns count="3">
     <tableColumn id="8" xr3:uid="{37080264-53EC-4388-815F-0BF6AC40ED1C}" name="max" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{002DCF62-821F-44C0-87AF-9D8974E0288C}" name="average" dataDxfId="40"/>
@@ -13735,8 +12752,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A239DDF6-BB5B-4916-9D2B-95DC80C9E407}" name="Tableau1101214" displayName="Tableau1101214" ref="I94:K97" totalsRowShown="0" headerRowDxfId="38">
-  <autoFilter ref="I94:K97" xr:uid="{A239DDF6-BB5B-4916-9D2B-95DC80C9E407}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A239DDF6-BB5B-4916-9D2B-95DC80C9E407}" name="Tableau1101214" displayName="Tableau1101214" ref="I92:K95" totalsRowShown="0" headerRowDxfId="38">
+  <autoFilter ref="I92:K95" xr:uid="{A239DDF6-BB5B-4916-9D2B-95DC80C9E407}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{12366A54-2470-4928-A29A-235030C0A3B8}" name="min"/>
     <tableColumn id="2" xr3:uid="{89D5FEC2-9CCF-44EC-9657-7F86B5138F56}" name="max"/>
@@ -14079,10 +13096,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:M275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I266" sqref="I266"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14099,17 +13119,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -14253,17 +13273,17 @@
       <c r="K30" s="10"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="I32" s="9" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="I32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
@@ -14408,17 +13428,17 @@
       <c r="K60" s="10"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="I62" s="9" t="s">
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="I62" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
@@ -14524,10 +13544,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+    </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
@@ -14538,138 +13582,114 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="I91" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="I93" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
+      <c r="B93" s="5">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3">
+        <v>9.9682807922363195E-4</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1.9931793212890601E-4</v>
+      </c>
+      <c r="E93" s="3">
+        <v>10</v>
+      </c>
+      <c r="G93" s="1">
+        <v>10</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>3.3599999999999998E-4</v>
+      </c>
+      <c r="K93" s="4">
+        <v>3.3599999999999997E-5</v>
+      </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="6">
+        <v>9.9396705627441406E-4</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2.9902458190917899E-3</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1.3962268829345701E-3</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>2</v>
+      <c r="J94">
+        <v>3.3599999999999998E-4</v>
+      </c>
+      <c r="K94" s="4">
+        <v>3.3599999999999997E-5</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="5">
-        <v>0</v>
+        <v>2.2942066192626901E-2</v>
       </c>
       <c r="C95" s="3">
-        <v>9.9682807922363195E-4</v>
+        <v>2.9926061630248999E-2</v>
       </c>
       <c r="D95" s="3">
-        <v>1.9931793212890601E-4</v>
+        <v>2.5484991073608399E-2</v>
       </c>
       <c r="E95" s="3">
-        <v>10</v>
-      </c>
-      <c r="G95" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="I95" s="4">
-        <v>0</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J95">
-        <v>3.3599999999999998E-4</v>
+        <v>5.2269999999999999E-3</v>
       </c>
       <c r="K95" s="4">
-        <v>3.3599999999999997E-5</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="6">
-        <v>9.9396705627441406E-4</v>
-      </c>
-      <c r="C96" s="3">
-        <v>2.9902458190917899E-3</v>
-      </c>
-      <c r="D96" s="3">
-        <v>1.3962268829345701E-3</v>
-      </c>
-      <c r="E96" s="3">
-        <v>100</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>3.3599999999999998E-4</v>
-      </c>
-      <c r="K96" s="4">
-        <v>3.3599999999999997E-5</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="5">
-        <v>2.2942066192626901E-2</v>
-      </c>
-      <c r="C97" s="3">
-        <v>2.9926061630248999E-2</v>
-      </c>
-      <c r="D97" s="3">
-        <v>2.5484991073608399E-2</v>
-      </c>
-      <c r="E97" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I97" s="4">
-        <v>2.8E-5</v>
-      </c>
-      <c r="J97">
-        <v>5.2269999999999999E-3</v>
-      </c>
-      <c r="K97" s="4">
         <v>6.9779999999999896E-4</v>
       </c>
     </row>
@@ -14712,17 +13732,17 @@
       <c r="K120" s="10"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="I122" s="9" t="s">
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="I122" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
@@ -14861,17 +13881,17 @@
       <c r="K150" s="10"/>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="I152" s="9" t="s">
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="I152" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J152" s="9"/>
-      <c r="K152" s="9"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
@@ -15010,17 +14030,17 @@
       <c r="K179" s="10"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9"/>
-      <c r="I181" s="9" t="s">
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="I181" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J181" s="9"/>
-      <c r="K181" s="9"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="11"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
@@ -15159,17 +14179,17 @@
       <c r="K208" s="10"/>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="9"/>
-      <c r="I210" s="9" t="s">
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="I210" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J210" s="9"/>
-      <c r="K210" s="9"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="11"/>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
@@ -15314,17 +14334,17 @@
       <c r="K238" s="10"/>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C240" s="9"/>
-      <c r="D240" s="9"/>
-      <c r="E240" s="9"/>
-      <c r="I240" s="9" t="s">
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="I240" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J240" s="9"/>
-      <c r="K240" s="9"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="11"/>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
@@ -15463,17 +14483,17 @@
       <c r="K269" s="10"/>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B271" s="9" t="s">
+      <c r="B271" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C271" s="9"/>
-      <c r="D271" s="9"/>
-      <c r="E271" s="9"/>
-      <c r="I271" s="9" t="s">
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
+      <c r="I271" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J271" s="9"/>
-      <c r="K271" s="9"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="11"/>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B272" s="2" t="s">
@@ -15574,40 +14594,38 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="27">
+    <mergeCell ref="B87:K89"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B28:K30"/>
+    <mergeCell ref="B58:K60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="B118:K120"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="I122:K122"/>
+    <mergeCell ref="B148:K150"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="I152:K152"/>
+    <mergeCell ref="B177:K179"/>
+    <mergeCell ref="B181:E181"/>
+    <mergeCell ref="I181:K181"/>
+    <mergeCell ref="B206:K208"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="I210:K210"/>
     <mergeCell ref="B236:K238"/>
     <mergeCell ref="B240:E240"/>
     <mergeCell ref="I240:K240"/>
     <mergeCell ref="B267:K269"/>
     <mergeCell ref="B271:E271"/>
     <mergeCell ref="I271:K271"/>
-    <mergeCell ref="B177:K179"/>
-    <mergeCell ref="B181:E181"/>
-    <mergeCell ref="I181:K181"/>
-    <mergeCell ref="B206:K208"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="I210:K210"/>
-    <mergeCell ref="B118:K120"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="I122:K122"/>
-    <mergeCell ref="B148:K150"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="I152:K152"/>
-    <mergeCell ref="B58:K60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="B89:K91"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="I93:K93"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B28:K30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="20">
     <tablePart r:id="rId3"/>
